--- a/spring2019/Team4_W6_RCT_MyPersonalChef.xlsx
+++ b/spring2019/Team4_W6_RCT_MyPersonalChef.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheth\Documents\Masters\Spring2019\Project1\Deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pace\CS - Project II\Code\documents\spring2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626BF132-A386-48ED-B49B-F5D60B50D9F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0610B82D-2B5E-480A-B176-A2E4C239FA20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="701" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional Decomposition" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="205">
   <si>
     <t>FV - Field Validation</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Entitlements Specification</t>
   </si>
   <si>
-    <t xml:space="preserve">Requirements Composition Table: Library Information System </t>
-  </si>
-  <si>
     <t>Business Requirements</t>
   </si>
   <si>
@@ -459,15 +456,9 @@
     <t xml:space="preserve">02. Subscription Management </t>
   </si>
   <si>
-    <t>03. User Account Management</t>
-  </si>
-  <si>
     <t>04. Payment Management</t>
   </si>
   <si>
-    <t>05. Customer Support.</t>
-  </si>
-  <si>
     <t>02.01 Prepare monthly/weekly plan.</t>
   </si>
   <si>
@@ -480,27 +471,6 @@
     <t>02.04 Subscription Type Management.</t>
   </si>
   <si>
-    <t>03.01 Open My Account</t>
-  </si>
-  <si>
-    <t>03.02 Login into account</t>
-  </si>
-  <si>
-    <t>03.03 Sign Up using Existing Accounts.</t>
-  </si>
-  <si>
-    <t>03.04 Modify User Information.</t>
-  </si>
-  <si>
-    <t>03.05 Delete Account.</t>
-  </si>
-  <si>
-    <t>03.06 Configure Account.</t>
-  </si>
-  <si>
-    <t>03.07 Order History.</t>
-  </si>
-  <si>
     <t>04.01 Make Payment</t>
   </si>
   <si>
@@ -516,30 +486,6 @@
     <t>04.05 Delete Payment Details.</t>
   </si>
   <si>
-    <t>05.01 Contact Customer Support.</t>
-  </si>
-  <si>
-    <t>05.02 Feedbacks and Suggestions.</t>
-  </si>
-  <si>
-    <t>06. Search items</t>
-  </si>
-  <si>
-    <t>06.01 Search items</t>
-  </si>
-  <si>
-    <t>06.02 View Search(Sort/Filter)</t>
-  </si>
-  <si>
-    <t>06.03 View Kit options</t>
-  </si>
-  <si>
-    <t>06.04 Search/View delivery status</t>
-  </si>
-  <si>
-    <t>06.05 Add to CART</t>
-  </si>
-  <si>
     <t>4.2.1 Order Management</t>
   </si>
   <si>
@@ -564,18 +510,6 @@
     <t>4.2.8 Supply Management</t>
   </si>
   <si>
-    <t>All user to search the meal kit options or cooked food option</t>
-  </si>
-  <si>
-    <t>02. Subscription Management</t>
-  </si>
-  <si>
-    <t>05. Customer Support</t>
-  </si>
-  <si>
-    <t>06. Search Items</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.2.1.1 Search content </t>
   </si>
   <si>
@@ -696,14 +630,38 @@
     <t>Requirements Traceability Matrix  MyPersonalChef</t>
   </si>
   <si>
-    <t>Spring 2019 Deliverables</t>
+    <t>Requirements Composition Table: MyPersonalChef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04. Subscription Management </t>
+  </si>
+  <si>
+    <t>Manage the delivery of the food</t>
+  </si>
+  <si>
+    <t>Manage the subscription of food for weekly or montlhy basis</t>
+  </si>
+  <si>
+    <t>Manage the user accounts and configurations</t>
+  </si>
+  <si>
+    <t>Accept and manage payments, add card payment options</t>
+  </si>
+  <si>
+    <t>User notifications</t>
+  </si>
+  <si>
+    <t>Handle queries and customer feedbacks</t>
+  </si>
+  <si>
+    <t>Hanndle ingredients additon and prices .</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="32">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -863,22 +821,11 @@
       <name val="Calibri "/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri "/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri "/>
     </font>
     <font>
       <sz val="10"/>
@@ -887,7 +834,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,14 +871,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="91">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -1242,37 +1183,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1399,19 +1309,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thick">
@@ -1597,21 +1494,6 @@
       <top/>
       <bottom style="thick">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1968,38 +1850,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -2025,21 +1877,6 @@
       <left/>
       <right style="thick">
         <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
@@ -2092,6 +1929,65 @@
       </left>
       <right style="medium">
         <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
@@ -2211,7 +2107,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2281,9 +2177,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2339,9 +2232,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="18" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2378,7 +2268,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="25" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="30" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="27" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2391,10 +2281,10 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2406,7 +2296,7 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="34" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="31" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2415,109 +2305,60 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="37" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="31" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="31" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="41" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="47" xfId="30" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="43" xfId="30" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="48" xfId="30" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="44" xfId="30" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="49" xfId="30" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="45" xfId="30" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="51" xfId="30" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="50" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2535,462 +2376,441 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="30" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="53" xfId="30" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="54" xfId="30" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="63" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="64" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="68" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="69" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="72" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="77" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="76" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="78" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="55" xfId="30" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="57" xfId="30" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="56" xfId="30" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="56" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="79" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="80" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="81" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="54" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="54" xfId="30" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="56" xfId="30" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="30" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="47" xfId="30" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="46" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="53" xfId="30" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="53" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="86" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="87" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="58" xfId="30" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="59" xfId="30" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="68" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="69" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="71" xfId="31" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="72" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="74" xfId="31" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="76" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="77" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="80" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="81" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="84" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="82" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="85" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="85" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="81" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="79" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="80" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="86" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="83" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="60" xfId="30" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="62" xfId="30" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="61" xfId="30" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="87" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="87" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="87" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="87" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="88" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="89" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="58" xfId="30" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="59" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="58" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="59" xfId="30" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="61" xfId="30" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="107">
@@ -3465,32 +3285,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="26.90625" customWidth="1"/>
     <col min="2" max="2" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="123"/>
-    </row>
-    <row r="2" spans="1:2" ht="13">
-      <c r="A2" s="124" t="s">
+      <c r="B1" s="199"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="125"/>
+      <c r="B2" s="105"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="238" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -3498,48 +3318,182 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="122" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="122" t="s">
-        <v>72</v>
+      <c r="A4" s="238"/>
+      <c r="B4" s="103" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="26" t="s">
-        <v>139</v>
+      <c r="A5" s="237" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="122" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="122" t="s">
+      <c r="A6" s="237"/>
+      <c r="B6" s="103" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="237"/>
+      <c r="B7" s="26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="26" t="s">
+    <row r="8" spans="1:2" ht="26" customHeight="1">
+      <c r="A8" s="237" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="252" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="237"/>
+      <c r="B9" s="252"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="237"/>
+      <c r="B10" s="252"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="237" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="252" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="237"/>
+      <c r="B12" s="252"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="237"/>
+      <c r="B13" s="252"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="237"/>
+      <c r="B14" s="252"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="237" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="253" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="237"/>
+      <c r="B16" s="253"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="237"/>
+      <c r="B17" s="253"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="237"/>
+      <c r="B18" s="253"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="237"/>
+      <c r="B19" s="253"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="237"/>
+      <c r="B20" s="253"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="237"/>
+      <c r="B21" s="253"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="237" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="252" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="237"/>
+      <c r="B23" s="252"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="237"/>
+      <c r="B24" s="252"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="237"/>
+      <c r="B25" s="252"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="237"/>
+      <c r="B26" s="252"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="237" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="253" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="237"/>
+      <c r="B28" s="253"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="235" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="253" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="236"/>
+      <c r="B30" s="253"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="233" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="25">
-      <c r="A8" s="126" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="126" t="s">
-        <v>174</v>
-      </c>
+      <c r="B31" s="253" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="233"/>
+      <c r="B32" s="253"/>
+    </row>
+    <row r="33" spans="1:2" ht="13.75" thickBot="1">
+      <c r="A33" s="234"/>
+      <c r="B33" s="253"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="17">
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A33"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3556,39 +3510,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="25.453125" customWidth="1"/>
     <col min="2" max="2" width="45.54296875" customWidth="1"/>
     <col min="3" max="3" width="6.81640625" customWidth="1"/>
     <col min="4" max="10" width="5.7265625" customWidth="1"/>
     <col min="11" max="11" width="4.81640625" customWidth="1"/>
-    <col min="12" max="12" width="4.36328125" customWidth="1"/>
-    <col min="13" max="13" width="4.26953125" customWidth="1"/>
-    <col min="14" max="14" width="4.453125" customWidth="1"/>
-    <col min="15" max="15" width="4.08984375" customWidth="1"/>
-    <col min="16" max="16" width="4.1796875" customWidth="1"/>
-    <col min="17" max="17" width="3.453125" customWidth="1"/>
-    <col min="18" max="18" width="5.08984375" customWidth="1"/>
-    <col min="19" max="19" width="3.81640625" customWidth="1"/>
-    <col min="20" max="20" width="10.36328125" customWidth="1"/>
-    <col min="21" max="21" width="8.81640625" customWidth="1"/>
-    <col min="22" max="22" width="10" customWidth="1"/>
-    <col min="23" max="23" width="6.81640625" customWidth="1"/>
-    <col min="24" max="24" width="5.08984375" customWidth="1"/>
-    <col min="25" max="25" width="5.90625" customWidth="1"/>
-    <col min="26" max="26" width="4.26953125" customWidth="1"/>
+    <col min="12" max="12" width="4.1796875" customWidth="1"/>
+    <col min="13" max="13" width="3.453125" customWidth="1"/>
+    <col min="14" max="14" width="5.08984375" customWidth="1"/>
+    <col min="15" max="15" width="3.81640625" customWidth="1"/>
+    <col min="16" max="16" width="10.36328125" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="19" max="19" width="6.81640625" customWidth="1"/>
+    <col min="20" max="20" width="5.08984375" customWidth="1"/>
+    <col min="21" max="21" width="5.90625" customWidth="1"/>
+    <col min="22" max="22" width="4.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="5" customFormat="1" ht="30.5">
+    <row r="1" spans="1:35" s="5" customFormat="1" ht="31">
       <c r="A1" s="9" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3600,13 +3550,8 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="N1" s="234"/>
-      <c r="O1" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="5" customFormat="1" ht="18" thickBot="1">
+    </row>
+    <row r="2" spans="1:35" s="5" customFormat="1" ht="18.75" thickBot="1">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -3618,1185 +3563,1487 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:27" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="181" t="s">
+    </row>
+    <row r="3" spans="1:35" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="212" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="213"/>
+      <c r="C3" s="210" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="113" t="s">
+      <c r="D3" s="211"/>
+      <c r="E3" s="224" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="230" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="231"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="221" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="221" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" s="222"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="222"/>
       <c r="M3" s="222"/>
       <c r="N3" s="222"/>
-      <c r="O3" s="223"/>
-      <c r="P3" s="183" t="s">
+      <c r="O3" s="222"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="230" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="231"/>
+      <c r="S3" s="231"/>
+      <c r="T3" s="231"/>
+      <c r="U3" s="231"/>
+      <c r="V3" s="231"/>
+      <c r="W3" s="232"/>
+      <c r="X3" s="227" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="228"/>
+      <c r="AB3" s="229"/>
+      <c r="AC3" s="227" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="227" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF3" s="229"/>
+      <c r="AG3" s="246" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH3" s="247"/>
+      <c r="AI3" s="248"/>
+    </row>
+    <row r="4" spans="1:35" ht="125.25" customHeight="1" thickBot="1">
+      <c r="A4" s="214"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="159" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="160" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="249" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="249" t="s">
         <v>140</v>
       </c>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="184"/>
-      <c r="T3" s="185"/>
-      <c r="U3" s="111" t="s">
+      <c r="G4" s="250" t="s">
         <v>141</v>
       </c>
-      <c r="V3" s="112"/>
-      <c r="W3" s="214" t="s">
-        <v>160</v>
-      </c>
-      <c r="X3" s="215"/>
-      <c r="Y3" s="215"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="216"/>
-    </row>
-    <row r="4" spans="1:27" ht="125.25" customHeight="1" thickBot="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="186"/>
-      <c r="C4" s="202" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="203" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="204" t="s">
+      <c r="H4" s="251" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="204" t="s">
+      <c r="I4" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="170" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="168" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="205" t="s">
+      <c r="M4" s="162" t="s">
         <v>144</v>
       </c>
-      <c r="H4" s="206" t="s">
+      <c r="N4" s="162" t="s">
         <v>145</v>
       </c>
-      <c r="I4" s="213" t="s">
+      <c r="O4" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="J4" s="224" t="s">
+      <c r="P4" s="163" t="s">
         <v>147</v>
       </c>
-      <c r="K4" s="224" t="s">
+      <c r="Q4" s="169" t="s">
+        <v>106</v>
+      </c>
+      <c r="R4" s="170" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" s="170" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="U4" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="V4" s="170" t="s">
+        <v>102</v>
+      </c>
+      <c r="W4" s="168" t="s">
+        <v>104</v>
+      </c>
+      <c r="X4" s="169" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y4" s="170" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z4" s="170" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA4" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB4" s="168" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC4" s="169" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD4" s="168" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE4" s="172" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF4" s="173" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG4" s="174" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH4" s="175" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI4" s="173" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="16.75" thickTop="1">
+      <c r="A5" s="200" t="s">
         <v>148</v>
       </c>
-      <c r="L4" s="224" t="s">
-        <v>149</v>
-      </c>
-      <c r="M4" s="224" t="s">
-        <v>150</v>
-      </c>
-      <c r="N4" s="224" t="s">
-        <v>151</v>
-      </c>
-      <c r="O4" s="225" t="s">
-        <v>152</v>
-      </c>
-      <c r="P4" s="208" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="209" t="s">
-        <v>154</v>
-      </c>
-      <c r="R4" s="209" t="s">
-        <v>155</v>
-      </c>
-      <c r="S4" s="209" t="s">
+      <c r="B5" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="T4" s="210" t="s">
+      <c r="C5" s="146" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="147" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="155"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="155" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="150" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="151"/>
+      <c r="S5" s="152" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="151"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="158"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="158"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="158"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="158"/>
+    </row>
+    <row r="6" spans="1:35" ht="16">
+      <c r="A6" s="201"/>
+      <c r="B6" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="U4" s="211" t="s">
-        <v>158</v>
-      </c>
-      <c r="V4" s="212" t="s">
-        <v>159</v>
-      </c>
-      <c r="W4" s="207" t="s">
-        <v>161</v>
-      </c>
-      <c r="X4" s="217" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y4" s="218" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z4" s="219" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA4" s="220" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="16" thickTop="1">
-      <c r="A5" s="176" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="177" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="187" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="188" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="189" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="190"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="191" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="192"/>
-      <c r="K5" s="193" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="192"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="195" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="196" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" s="197"/>
-      <c r="R5" s="197"/>
-      <c r="S5" s="198"/>
-      <c r="T5" s="199"/>
-      <c r="U5" s="200"/>
-      <c r="V5" s="199"/>
-      <c r="W5" s="200" t="s">
-        <v>49</v>
-      </c>
-      <c r="X5" s="201" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y5" s="201" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z5" s="201" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA5" s="199"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.5">
-      <c r="A6" s="178"/>
-      <c r="B6" s="179" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="52" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="83" t="s">
-        <v>49</v>
-      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="155"/>
       <c r="J6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="16"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="89"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.5">
-      <c r="A7" s="178"/>
-      <c r="B7" s="177" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="29"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="86"/>
+    </row>
+    <row r="7" spans="1:35" ht="16">
+      <c r="A7" s="201"/>
+      <c r="B7" s="144" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="83"/>
+      <c r="H7" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="155"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="16"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="89"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.5">
-      <c r="A8" s="101" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="48" t="s">
+      <c r="O7" s="60"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="86"/>
+    </row>
+    <row r="8" spans="1:35" ht="16">
+      <c r="A8" s="216" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="46" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="83"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="155"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="82"/>
-      <c r="P8" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA8" s="89"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.5">
-      <c r="A9" s="101"/>
-      <c r="B9" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" s="79"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="86"/>
+    </row>
+    <row r="9" spans="1:35" ht="16">
+      <c r="A9" s="216"/>
+      <c r="B9" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="83"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="155"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="16"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="89"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.5">
-      <c r="A10" s="101"/>
-      <c r="B10" s="96" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="48"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="16"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="86"/>
+    </row>
+    <row r="10" spans="1:35" ht="16">
+      <c r="A10" s="216"/>
+      <c r="B10" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="46"/>
       <c r="F10" s="14"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="83"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="155"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="16"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="15"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="V10" s="89"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="89"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.5">
-      <c r="A11" s="101" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="96" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="48" t="s">
+      <c r="O10" s="60"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="86"/>
+    </row>
+    <row r="11" spans="1:35" ht="16">
+      <c r="A11" s="216" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="46" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="83"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="155"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="16"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="15"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="89"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.5">
-      <c r="A12" s="101"/>
-      <c r="B12" s="96" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="35" t="s">
+      <c r="O11" s="60"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="86"/>
+    </row>
+    <row r="12" spans="1:35" ht="16">
+      <c r="A12" s="216"/>
+      <c r="B12" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="34" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="19"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="84"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="155"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="16"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="20"/>
       <c r="N12" s="20"/>
-      <c r="O12" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="89"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.5">
-      <c r="A13" s="101"/>
-      <c r="B13" s="96" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="57" t="s">
+      <c r="O12" s="61"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="86"/>
+    </row>
+    <row r="13" spans="1:35" ht="16">
+      <c r="A13" s="216"/>
+      <c r="B13" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="55" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="84" t="s">
-        <v>49</v>
-      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="155"/>
       <c r="J13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="89"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.5">
-      <c r="A14" s="102"/>
-      <c r="B14" s="96" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="57"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="30"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="86"/>
+    </row>
+    <row r="14" spans="1:35" ht="16">
+      <c r="A14" s="217"/>
+      <c r="B14" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="84"/>
+      <c r="H14" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="155"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="50"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="89"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.5">
-      <c r="A15" s="226" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="227" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="57"/>
+      <c r="K14" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="20"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="T14" s="48"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="86"/>
+    </row>
+    <row r="15" spans="1:35" ht="16">
+      <c r="A15" s="218" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="164" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="84" t="s">
-        <v>49</v>
-      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="155"/>
       <c r="J15" s="19"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="16"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="N15" s="20"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="R15" s="20"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="89"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.5">
-      <c r="A16" s="228"/>
-      <c r="B16" s="227" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="54" t="s">
+      <c r="O15" s="61"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15" s="19"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="86"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="86"/>
+    </row>
+    <row r="16" spans="1:35" ht="16">
+      <c r="A16" s="219"/>
+      <c r="B16" s="164" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="52" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="84"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="155"/>
       <c r="J16" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="16"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="20"/>
       <c r="N16" s="20"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="89"/>
-    </row>
-    <row r="17" spans="1:27" ht="15.5">
-      <c r="A17" s="228"/>
-      <c r="B17" s="227" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16" s="30"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="86"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="86"/>
+    </row>
+    <row r="17" spans="1:35" ht="16">
+      <c r="A17" s="219"/>
+      <c r="B17" s="164" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="84"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="155"/>
       <c r="J17" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="16"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="20"/>
       <c r="N17" s="20"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="89"/>
-    </row>
-    <row r="18" spans="1:27" ht="15.5">
-      <c r="A18" s="228"/>
-      <c r="B18" s="229" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" s="69"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="89"/>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="228"/>
-      <c r="B19" s="227" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="N19" s="73"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="89"/>
-    </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="228"/>
-      <c r="B20" s="227" t="s">
-        <v>193</v>
-      </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="O20" s="75"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="89"/>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="A21" s="230"/>
-      <c r="B21" s="227" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="89"/>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="A22" s="176" t="s">
+      <c r="O17" s="61"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="S17" s="30"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="86"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="86"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="86"/>
+    </row>
+    <row r="18" spans="1:35" ht="16">
+      <c r="A18" s="219"/>
+      <c r="B18" s="165" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="U18" s="67"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="86"/>
+    </row>
+    <row r="19" spans="1:35" ht="16">
+      <c r="A19" s="219"/>
+      <c r="B19" s="164" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="177" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="89"/>
-    </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="178"/>
-      <c r="B23" s="177" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="89"/>
-    </row>
-    <row r="24" spans="1:27">
-      <c r="A24" s="178"/>
-      <c r="B24" s="177" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="89"/>
-    </row>
-    <row r="25" spans="1:27">
-      <c r="A25" s="178"/>
-      <c r="B25" s="177" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="T25" s="89"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="89"/>
-    </row>
-    <row r="26" spans="1:27">
-      <c r="A26" s="180"/>
-      <c r="B26" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="U26" s="92"/>
-      <c r="V26" s="89"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="61"/>
-      <c r="Z26" s="61"/>
-      <c r="AA26" s="89"/>
-    </row>
-    <row r="27" spans="1:27">
-      <c r="A27" s="231" t="s">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="V19" s="71"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="86"/>
+    </row>
+    <row r="20" spans="1:35" ht="16">
+      <c r="A20" s="219"/>
+      <c r="B20" s="164" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="232" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="89"/>
-      <c r="U27" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="V27" s="89"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
-      <c r="Z27" s="61"/>
-      <c r="AA27" s="89"/>
-    </row>
-    <row r="28" spans="1:27">
-      <c r="A28" s="233"/>
-      <c r="B28" s="232" t="s">
-        <v>201</v>
-      </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="89"/>
-    </row>
-    <row r="29" spans="1:27">
-      <c r="A29" s="103" t="s">
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="W20" s="73"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="86"/>
+    </row>
+    <row r="21" spans="1:35" ht="16">
+      <c r="A21" s="220"/>
+      <c r="B21" s="164" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="97" t="s">
-        <v>202</v>
-      </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="V29" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="W29" s="92"/>
-      <c r="X29" s="61"/>
-      <c r="Y29" s="61"/>
-      <c r="Z29" s="61"/>
-      <c r="AA29" s="89"/>
-    </row>
-    <row r="30" spans="1:27">
-      <c r="A30" s="104"/>
-      <c r="B30" s="97" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="89"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="61"/>
-      <c r="Y30" s="61"/>
-      <c r="Z30" s="61"/>
-      <c r="AA30" s="89"/>
-    </row>
-    <row r="31" spans="1:27">
-      <c r="A31" s="105" t="s">
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="86"/>
+    </row>
+    <row r="22" spans="1:35" ht="16">
+      <c r="A22" s="200" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="98" t="s">
-        <v>204</v>
-      </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
-      <c r="Z31" s="61"/>
-      <c r="AA31" s="89" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
-      <c r="A32" s="106"/>
-      <c r="B32" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="61"/>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="61"/>
-      <c r="AA32" s="89" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="13" thickBot="1">
-      <c r="A33" s="107"/>
-      <c r="B33" s="100" t="s">
-        <v>206</v>
-      </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="81"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="X22" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="86"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="86"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="86"/>
+    </row>
+    <row r="23" spans="1:35" ht="16">
+      <c r="A23" s="201"/>
+      <c r="B23" s="144" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y23" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="59"/>
+      <c r="AH23" s="59"/>
+      <c r="AI23" s="86"/>
+    </row>
+    <row r="24" spans="1:35" ht="16">
+      <c r="A24" s="201"/>
+      <c r="B24" s="144" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="86"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="86"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="86"/>
+    </row>
+    <row r="25" spans="1:35" ht="16">
+      <c r="A25" s="201"/>
+      <c r="B25" s="144" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB25" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="86"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="86"/>
+      <c r="AG25" s="59"/>
+      <c r="AH25" s="59"/>
+      <c r="AI25" s="86"/>
+    </row>
+    <row r="26" spans="1:35" ht="16">
+      <c r="A26" s="202"/>
+      <c r="B26" s="144" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="86"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="86"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="86"/>
+    </row>
+    <row r="27" spans="1:35" ht="16">
+      <c r="A27" s="203" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="166" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD27" s="86"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="86"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="86"/>
+    </row>
+    <row r="28" spans="1:35" ht="16">
+      <c r="A28" s="204"/>
+      <c r="B28" s="166" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="86"/>
+      <c r="AG28" s="59"/>
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="86"/>
+    </row>
+    <row r="29" spans="1:35" ht="16">
+      <c r="A29" s="205" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="94" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="72"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="86"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG29" s="59"/>
+      <c r="AH29" s="59"/>
+      <c r="AI29" s="86"/>
+    </row>
+    <row r="30" spans="1:35" ht="16">
+      <c r="A30" s="206"/>
+      <c r="B30" s="94" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="86"/>
+      <c r="AE30" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF30" s="86"/>
+      <c r="AG30" s="59"/>
+      <c r="AH30" s="59"/>
+      <c r="AI30" s="86"/>
+    </row>
+    <row r="31" spans="1:35" ht="16">
+      <c r="A31" s="207" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="72"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="86"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="86"/>
+      <c r="AE31" s="59"/>
+      <c r="AF31" s="86"/>
+      <c r="AG31" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH31" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI31" s="86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" ht="16">
+      <c r="A32" s="208"/>
+      <c r="B32" s="96" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="86"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="86"/>
+      <c r="AE32" s="59"/>
+      <c r="AF32" s="86"/>
+      <c r="AG32" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH32" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI32" s="86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" ht="13.75" thickBot="1">
+      <c r="A33" s="209"/>
+      <c r="B33" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="74"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
       <c r="I33" s="76"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="93"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="13" thickTop="1"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="75"/>
+      <c r="X33" s="91"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="92"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="92"/>
+      <c r="AE33" s="91"/>
+      <c r="AF33" s="92"/>
+      <c r="AG33" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH33" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI33" s="92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" ht="13.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="X3:AB3"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A33"/>
-    <mergeCell ref="W3:AA3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A21"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="L3:P3"/>
     <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -4817,7 +5064,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="37.81640625" customWidth="1"/>
     <col min="2" max="2" width="54.7265625" customWidth="1"/>
@@ -4831,127 +5078,127 @@
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.5">
+    <row r="2" spans="1:3" ht="39">
       <c r="A2" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="62.5">
+    <row r="3" spans="1:3" ht="65">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="25">
+      <c r="C3" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="25">
+      <c r="C4" s="43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="25">
+      <c r="C5" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="44"/>
-    </row>
-    <row r="7" spans="1:3" ht="37.5">
+      <c r="C6" s="43"/>
+    </row>
+    <row r="7" spans="1:3" ht="39">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="37.5">
+      <c r="C7" s="43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="39">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="37.5">
+    <row r="9" spans="1:3" ht="39">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="37.5">
+      <c r="C9" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="39">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="50">
+    <row r="11" spans="1:3" ht="52">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="50">
+      <c r="C11" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="52">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>68</v>
+      <c r="C12" s="37" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4961,19 +5208,19 @@
       <c r="B13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="37.5">
+    <row r="14" spans="1:3" ht="39">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>69</v>
+      <c r="C14" s="37" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4984,14 +5231,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="25">
+    <row r="16" spans="1:3" ht="26">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5016,315 +5263,324 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+      <selection pane="topRight" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="35.1796875" customWidth="1"/>
-    <col min="2" max="15" width="5.7265625" style="40" customWidth="1"/>
-    <col min="16" max="17" width="8.81640625" style="40"/>
+    <col min="2" max="15" width="5.7265625" style="39" customWidth="1"/>
+    <col min="16" max="17" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="5" customFormat="1" ht="30.5">
+    <row r="1" spans="1:32" s="5" customFormat="1" ht="31">
       <c r="A1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-    </row>
-    <row r="2" spans="1:32" s="5" customFormat="1" ht="18" thickBot="1">
+        <v>196</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+    </row>
+    <row r="2" spans="1:32" s="5" customFormat="1" ht="18.75" thickBot="1">
       <c r="A2" s="11"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="1:32" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A3" s="266"/>
-      <c r="B3" s="130" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="130" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="130" t="s">
-        <v>207</v>
-      </c>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="130" t="s">
-        <v>169</v>
-      </c>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="145"/>
-      <c r="X3" s="143" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y3" s="145"/>
-      <c r="Z3" s="143" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="143" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="145"/>
+      <c r="A3" s="190"/>
+      <c r="B3" s="243" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="244"/>
+      <c r="D3" s="230" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="231"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="230" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="231"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="230" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="231"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="230" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="231"/>
+      <c r="P3" s="231"/>
+      <c r="Q3" s="231"/>
+      <c r="R3" s="231"/>
+      <c r="S3" s="231"/>
+      <c r="T3" s="232"/>
+      <c r="U3" s="227" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="228"/>
+      <c r="W3" s="228"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="227" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA3" s="229"/>
+      <c r="AB3" s="227" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC3" s="229"/>
+      <c r="AD3" s="246" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE3" s="247"/>
+      <c r="AF3" s="248"/>
     </row>
     <row r="4" spans="1:32" ht="202.5" customHeight="1" thickBot="1">
-      <c r="A4" s="267"/>
-      <c r="B4" s="235" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="236" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="237" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="238" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="239" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="237" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4" s="238" t="s">
-        <v>184</v>
-      </c>
-      <c r="I4" s="239" t="s">
-        <v>185</v>
-      </c>
-      <c r="J4" s="240" t="s">
-        <v>186</v>
-      </c>
-      <c r="K4" s="237" t="s">
-        <v>187</v>
-      </c>
-      <c r="L4" s="238" t="s">
-        <v>188</v>
-      </c>
-      <c r="M4" s="239" t="s">
-        <v>189</v>
-      </c>
-      <c r="N4" s="239" t="s">
-        <v>190</v>
-      </c>
-      <c r="O4" s="239" t="s">
-        <v>191</v>
-      </c>
-      <c r="P4" s="239" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q4" s="239" t="s">
-        <v>193</v>
-      </c>
-      <c r="R4" s="237" t="s">
-        <v>194</v>
-      </c>
-      <c r="S4" s="238" t="s">
-        <v>195</v>
-      </c>
-      <c r="T4" s="239" t="s">
-        <v>196</v>
-      </c>
-      <c r="U4" s="239" t="s">
-        <v>197</v>
-      </c>
-      <c r="V4" s="239" t="s">
-        <v>198</v>
-      </c>
-      <c r="W4" s="237" t="s">
-        <v>199</v>
-      </c>
-      <c r="X4" s="238" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y4" s="237" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z4" s="241" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA4" s="242" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB4" s="243" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC4" s="244" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD4" s="244" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE4" s="245" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="14">
-      <c r="A5" s="265" t="s">
+      <c r="A4" s="242"/>
+      <c r="B4" s="167" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="167" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="169" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="167" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="170" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="168" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="169" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="170" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="171" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="168" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="169" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" s="170" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="170" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q4" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="R4" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="S4" s="170" t="s">
+        <v>102</v>
+      </c>
+      <c r="T4" s="168" t="s">
+        <v>104</v>
+      </c>
+      <c r="U4" s="169" t="s">
+        <v>111</v>
+      </c>
+      <c r="V4" s="170" t="s">
+        <v>113</v>
+      </c>
+      <c r="W4" s="170" t="s">
+        <v>116</v>
+      </c>
+      <c r="X4" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y4" s="168" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z4" s="169" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA4" s="168" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB4" s="172" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC4" s="173" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD4" s="174" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE4" s="175" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF4" s="175" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="14.25">
+      <c r="A5" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="246">
-        <v>1</v>
-      </c>
-      <c r="C5" s="247">
-        <v>1</v>
-      </c>
-      <c r="D5" s="248">
-        <v>1</v>
-      </c>
-      <c r="E5" s="248">
-        <v>1</v>
-      </c>
-      <c r="F5" s="249">
-        <v>1</v>
-      </c>
-      <c r="G5" s="249">
-        <v>1</v>
-      </c>
-      <c r="H5" s="249">
-        <v>1</v>
-      </c>
-      <c r="I5" s="249">
-        <v>1</v>
-      </c>
-      <c r="J5" s="249">
-        <v>1</v>
-      </c>
-      <c r="K5" s="249">
-        <v>1</v>
-      </c>
-      <c r="L5" s="249">
-        <v>1</v>
-      </c>
-      <c r="M5" s="249">
-        <v>1</v>
-      </c>
-      <c r="N5" s="249">
-        <v>1</v>
-      </c>
-      <c r="O5" s="249">
-        <v>1</v>
-      </c>
-      <c r="P5" s="249">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="249">
-        <v>1</v>
-      </c>
-      <c r="R5" s="249">
-        <v>1</v>
-      </c>
-      <c r="S5" s="249">
-        <v>1</v>
-      </c>
-      <c r="T5" s="249">
-        <v>1</v>
-      </c>
-      <c r="U5" s="249">
-        <v>1</v>
-      </c>
-      <c r="V5" s="249">
-        <v>1</v>
-      </c>
-      <c r="W5" s="249">
-        <v>1</v>
-      </c>
-      <c r="X5" s="249">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="249">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="249">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="249">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="249">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="249">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="249">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="14">
-      <c r="A6" s="260" t="s">
+      <c r="B5" s="176">
+        <v>1</v>
+      </c>
+      <c r="C5" s="177">
+        <v>1</v>
+      </c>
+      <c r="D5" s="245">
+        <v>1</v>
+      </c>
+      <c r="E5" s="149">
+        <v>1</v>
+      </c>
+      <c r="F5" s="176">
+        <v>1</v>
+      </c>
+      <c r="G5" s="176">
+        <v>1</v>
+      </c>
+      <c r="H5" s="177">
+        <v>1</v>
+      </c>
+      <c r="I5" s="177">
+        <v>1</v>
+      </c>
+      <c r="J5" s="177">
+        <v>1</v>
+      </c>
+      <c r="K5" s="177">
+        <v>1</v>
+      </c>
+      <c r="L5" s="177">
+        <v>1</v>
+      </c>
+      <c r="M5" s="177">
+        <v>1</v>
+      </c>
+      <c r="N5" s="177">
+        <v>1</v>
+      </c>
+      <c r="O5" s="177">
+        <v>1</v>
+      </c>
+      <c r="P5" s="177">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="177">
+        <v>1</v>
+      </c>
+      <c r="R5" s="177">
+        <v>1</v>
+      </c>
+      <c r="S5" s="177">
+        <v>1</v>
+      </c>
+      <c r="T5" s="177">
+        <v>1</v>
+      </c>
+      <c r="U5" s="177">
+        <v>1</v>
+      </c>
+      <c r="V5" s="177">
+        <v>1</v>
+      </c>
+      <c r="W5" s="177">
+        <v>1</v>
+      </c>
+      <c r="X5" s="177">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="177">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="177">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="177">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="177">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="177">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="177">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="177">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="14.25">
+      <c r="A6" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="134">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0</v>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
       </c>
       <c r="D6" s="14">
         <v>1</v>
       </c>
       <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
         <v>1</v>
       </c>
       <c r="H6" s="15">
@@ -5396,70 +5652,73 @@
       <c r="AD6" s="15">
         <v>1</v>
       </c>
-      <c r="AE6" s="137">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="47"/>
-    </row>
-    <row r="7" spans="1:32" ht="14">
-      <c r="A7" s="261" t="s">
+      <c r="AE6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="14.5">
+      <c r="A7" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="251"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="135"/>
-    </row>
-    <row r="8" spans="1:32" ht="14">
-      <c r="A8" s="260" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+    </row>
+    <row r="8" spans="1:32" ht="14.25">
+      <c r="A8" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="134">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
         <v>1</v>
       </c>
       <c r="D8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="14">
         <v>1</v>
       </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15">
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
         <v>1</v>
       </c>
       <c r="H8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="15">
         <v>1</v>
@@ -5471,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="15">
         <v>1</v>
@@ -5480,22 +5739,22 @@
         <v>1</v>
       </c>
       <c r="O8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="15">
         <v>0</v>
       </c>
-      <c r="R8" s="117">
-        <v>1</v>
+      <c r="R8" s="15">
+        <v>0</v>
       </c>
       <c r="S8" s="15">
-        <v>1</v>
-      </c>
-      <c r="T8" s="15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T8" s="98">
+        <v>1</v>
       </c>
       <c r="U8" s="15">
         <v>1</v>
@@ -5504,41 +5763,44 @@
         <v>0</v>
       </c>
       <c r="W8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="15">
         <v>0</v>
       </c>
       <c r="Y8" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="15">
         <v>1</v>
       </c>
       <c r="AB8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="15">
         <v>1</v>
       </c>
       <c r="AD8" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="14">
-      <c r="A9" s="260" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="14.25">
+      <c r="A9" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="134">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15">
         <v>1</v>
       </c>
       <c r="D9" s="14">
@@ -5547,10 +5809,10 @@
       <c r="E9" s="14">
         <v>1</v>
       </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
         <v>1</v>
       </c>
       <c r="H9" s="15">
@@ -5563,10 +5825,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="15">
         <v>0</v>
@@ -5575,13 +5837,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="15">
         <v>0</v>
       </c>
       <c r="Q9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="15">
         <v>0</v>
@@ -5593,60 +5855,63 @@
         <v>0</v>
       </c>
       <c r="U9" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="15">
         <v>0</v>
       </c>
       <c r="W9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="15">
         <v>0</v>
       </c>
       <c r="Y9" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="15">
         <v>1</v>
       </c>
       <c r="AB9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="15">
         <v>0</v>
       </c>
-      <c r="AE9" s="137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="14">
-      <c r="A10" s="260" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="134">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="AE9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="14.25">
+      <c r="A10" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
         <v>1</v>
       </c>
       <c r="D10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
       </c>
       <c r="H10" s="15">
         <v>1</v>
@@ -5658,13 +5923,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="15">
         <v>1</v>
       </c>
       <c r="M10" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="15">
         <v>1</v>
@@ -5673,13 +5938,13 @@
         <v>1</v>
       </c>
       <c r="P10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="15">
         <v>0</v>
@@ -5688,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="15">
         <v>1</v>
@@ -5697,57 +5962,60 @@
         <v>1</v>
       </c>
       <c r="X10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="15">
         <v>1</v>
       </c>
       <c r="Z10" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="15">
         <v>1</v>
       </c>
       <c r="AB10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="15">
         <v>0</v>
       </c>
-      <c r="AE10" s="137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="14">
-      <c r="A11" s="260" t="s">
+      <c r="AE10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="14.25">
+      <c r="A11" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="134">
-        <v>1</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15">
         <v>0</v>
       </c>
       <c r="D11" s="14">
         <v>1</v>
       </c>
       <c r="E11" s="14">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
       </c>
       <c r="H11" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="15">
         <v>1</v>
@@ -5762,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="15">
         <v>1</v>
@@ -5771,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="15">
         <v>0</v>
@@ -5780,10 +6048,10 @@
         <v>0</v>
       </c>
       <c r="T11" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="15">
         <v>1</v>
@@ -5792,69 +6060,72 @@
         <v>1</v>
       </c>
       <c r="X11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="15">
         <v>1</v>
       </c>
       <c r="Z11" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="15">
         <v>1</v>
       </c>
       <c r="AB11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="15">
         <v>0</v>
       </c>
-      <c r="AE11" s="137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="14">
-      <c r="A12" s="260" t="s">
+      <c r="AE11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="14.25">
+      <c r="A12" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="134">
-        <v>1</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="14">
         <v>0</v>
       </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
         <v>0</v>
       </c>
       <c r="H12" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="15">
         <v>0</v>
       </c>
       <c r="J12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="15">
         <v>1</v>
@@ -5863,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="15">
         <v>0</v>
@@ -5875,31 +6146,31 @@
         <v>0</v>
       </c>
       <c r="T12" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="15">
         <v>0</v>
       </c>
       <c r="Y12" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="15">
         <v>0</v>
@@ -5907,49 +6178,52 @@
       <c r="AD12" s="15">
         <v>0</v>
       </c>
-      <c r="AE12" s="137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="14">
-      <c r="A13" s="260" t="s">
+      <c r="AE12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="14.25">
+      <c r="A13" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="147">
-        <v>0</v>
-      </c>
-      <c r="C13" s="35">
-        <v>1</v>
-      </c>
-      <c r="D13" s="35">
-        <v>1</v>
-      </c>
-      <c r="E13" s="35">
-        <v>1</v>
-      </c>
-      <c r="F13" s="35">
-        <v>0</v>
-      </c>
-      <c r="G13" s="35">
-        <v>0</v>
-      </c>
-      <c r="H13" s="35">
-        <v>1</v>
-      </c>
-      <c r="I13" s="35">
-        <v>0</v>
-      </c>
-      <c r="J13" s="35">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <v>1</v>
-      </c>
-      <c r="L13" s="20">
-        <v>1</v>
-      </c>
-      <c r="M13" s="20">
-        <v>0</v>
+      <c r="B13" s="34">
+        <v>1</v>
+      </c>
+      <c r="C13" s="34">
+        <v>0</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0</v>
+      </c>
+      <c r="E13" s="34">
+        <v>1</v>
+      </c>
+      <c r="F13" s="34">
+        <v>1</v>
+      </c>
+      <c r="G13" s="34">
+        <v>1</v>
+      </c>
+      <c r="H13" s="34">
+        <v>0</v>
+      </c>
+      <c r="I13" s="34">
+        <v>0</v>
+      </c>
+      <c r="J13" s="34">
+        <v>1</v>
+      </c>
+      <c r="K13" s="34">
+        <v>0</v>
+      </c>
+      <c r="L13" s="34">
+        <v>0</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1</v>
       </c>
       <c r="N13" s="20">
         <v>1</v>
@@ -5957,26 +6231,26 @@
       <c r="O13" s="20">
         <v>0</v>
       </c>
-      <c r="P13" s="15">
-        <v>0</v>
+      <c r="P13" s="20">
+        <v>1</v>
       </c>
       <c r="Q13" s="20">
         <v>0</v>
       </c>
       <c r="R13" s="15">
-        <v>1</v>
-      </c>
-      <c r="S13" s="15">
+        <v>0</v>
+      </c>
+      <c r="S13" s="20">
         <v>0</v>
       </c>
       <c r="T13" s="15">
         <v>1</v>
       </c>
       <c r="U13" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="15">
         <v>1</v>
@@ -5985,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="15">
         <v>0</v>
@@ -6002,70 +6276,73 @@
       <c r="AD13" s="15">
         <v>0</v>
       </c>
-      <c r="AE13" s="137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="14">
-      <c r="A14" s="260" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="147">
-        <v>1</v>
-      </c>
-      <c r="C14" s="35">
-        <v>1</v>
-      </c>
-      <c r="D14" s="35">
-        <v>0</v>
-      </c>
-      <c r="E14" s="35">
-        <v>0</v>
-      </c>
-      <c r="F14" s="35">
-        <v>1</v>
-      </c>
-      <c r="G14" s="35">
-        <v>1</v>
-      </c>
-      <c r="H14" s="35">
-        <v>0</v>
-      </c>
-      <c r="I14" s="35">
-        <v>1</v>
-      </c>
-      <c r="J14" s="35">
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
-        <v>0</v>
-      </c>
-      <c r="L14" s="15">
-        <v>0</v>
-      </c>
-      <c r="M14" s="20">
-        <v>1</v>
-      </c>
-      <c r="N14" s="20">
-        <v>0</v>
-      </c>
-      <c r="O14" s="15">
-        <v>0</v>
-      </c>
-      <c r="P14" s="15">
+      <c r="AE13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="14.25">
+      <c r="A14" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="34">
+        <v>0</v>
+      </c>
+      <c r="C14" s="34">
+        <v>1</v>
+      </c>
+      <c r="D14" s="34">
+        <v>1</v>
+      </c>
+      <c r="E14" s="34">
+        <v>1</v>
+      </c>
+      <c r="F14" s="34">
+        <v>0</v>
+      </c>
+      <c r="G14" s="34">
+        <v>0</v>
+      </c>
+      <c r="H14" s="34">
+        <v>1</v>
+      </c>
+      <c r="I14" s="34">
+        <v>1</v>
+      </c>
+      <c r="J14" s="34">
+        <v>0</v>
+      </c>
+      <c r="K14" s="34">
+        <v>1</v>
+      </c>
+      <c r="L14" s="34">
+        <v>0</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
+        <v>0</v>
+      </c>
+      <c r="O14" s="20">
+        <v>1</v>
+      </c>
+      <c r="P14" s="20">
         <v>0</v>
       </c>
       <c r="Q14" s="15">
         <v>0</v>
       </c>
       <c r="R14" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="15">
         <v>0</v>
       </c>
       <c r="T14" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="15">
         <v>0</v>
@@ -6074,13 +6351,13 @@
         <v>0</v>
       </c>
       <c r="W14" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="15">
         <v>0</v>
       </c>
       <c r="Y14" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="15">
         <v>0</v>
@@ -6097,70 +6374,73 @@
       <c r="AD14" s="15">
         <v>0</v>
       </c>
-      <c r="AE14" s="137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="14">
-      <c r="A15" s="260" t="s">
+      <c r="AE14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="14.25">
+      <c r="A15" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="147">
-        <v>0</v>
-      </c>
-      <c r="C15" s="35">
-        <v>1</v>
-      </c>
-      <c r="D15" s="35">
-        <v>0</v>
-      </c>
-      <c r="E15" s="35">
-        <v>0</v>
-      </c>
-      <c r="F15" s="35">
-        <v>1</v>
-      </c>
-      <c r="G15" s="35">
-        <v>1</v>
-      </c>
-      <c r="H15" s="35">
-        <v>1</v>
-      </c>
-      <c r="I15" s="35">
-        <v>1</v>
-      </c>
-      <c r="J15" s="35">
-        <v>0</v>
-      </c>
-      <c r="K15" s="15">
-        <v>1</v>
-      </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="20">
-        <v>1</v>
-      </c>
-      <c r="N15" s="20">
-        <v>0</v>
-      </c>
-      <c r="O15" s="15">
-        <v>0</v>
-      </c>
-      <c r="P15" s="15">
+      <c r="B15" s="34">
+        <v>0</v>
+      </c>
+      <c r="C15" s="34">
+        <v>1</v>
+      </c>
+      <c r="D15" s="34">
+        <v>0</v>
+      </c>
+      <c r="E15" s="34">
+        <v>1</v>
+      </c>
+      <c r="F15" s="34">
+        <v>0</v>
+      </c>
+      <c r="G15" s="34">
+        <v>0</v>
+      </c>
+      <c r="H15" s="34">
+        <v>1</v>
+      </c>
+      <c r="I15" s="34">
+        <v>1</v>
+      </c>
+      <c r="J15" s="34">
+        <v>1</v>
+      </c>
+      <c r="K15" s="34">
+        <v>1</v>
+      </c>
+      <c r="L15" s="34">
+        <v>0</v>
+      </c>
+      <c r="M15" s="15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="20">
+        <v>1</v>
+      </c>
+      <c r="P15" s="20">
         <v>0</v>
       </c>
       <c r="Q15" s="15">
         <v>0</v>
       </c>
       <c r="R15" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="15">
         <v>0</v>
       </c>
       <c r="T15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="15">
         <v>0</v>
@@ -6169,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="W15" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="15">
         <v>1</v>
@@ -6187,72 +6467,75 @@
         <v>1</v>
       </c>
       <c r="AC15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" ht="14">
-      <c r="A16" s="260" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="14.25">
+      <c r="A16" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="147">
-        <v>0</v>
-      </c>
-      <c r="C16" s="35">
-        <v>1</v>
-      </c>
-      <c r="D16" s="35">
-        <v>0</v>
-      </c>
-      <c r="E16" s="35">
-        <v>0</v>
-      </c>
-      <c r="F16" s="35">
-        <v>1</v>
-      </c>
-      <c r="G16" s="35">
-        <v>1</v>
-      </c>
-      <c r="H16" s="35">
-        <v>1</v>
-      </c>
-      <c r="I16" s="35">
-        <v>1</v>
-      </c>
-      <c r="J16" s="35">
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
-        <v>1</v>
-      </c>
-      <c r="L16" s="20">
-        <v>0</v>
-      </c>
-      <c r="M16" s="20">
+      <c r="B16" s="34">
+        <v>0</v>
+      </c>
+      <c r="C16" s="34">
+        <v>1</v>
+      </c>
+      <c r="D16" s="34">
+        <v>0</v>
+      </c>
+      <c r="E16" s="34">
+        <v>1</v>
+      </c>
+      <c r="F16" s="34">
+        <v>0</v>
+      </c>
+      <c r="G16" s="34">
+        <v>0</v>
+      </c>
+      <c r="H16" s="34">
+        <v>1</v>
+      </c>
+      <c r="I16" s="34">
+        <v>1</v>
+      </c>
+      <c r="J16" s="34">
+        <v>1</v>
+      </c>
+      <c r="K16" s="34">
+        <v>1</v>
+      </c>
+      <c r="L16" s="34">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
         <v>1</v>
       </c>
       <c r="N16" s="20">
         <v>0</v>
       </c>
       <c r="O16" s="20">
-        <v>0</v>
-      </c>
-      <c r="P16" s="15">
+        <v>1</v>
+      </c>
+      <c r="P16" s="20">
         <v>0</v>
       </c>
       <c r="Q16" s="20">
         <v>0</v>
       </c>
       <c r="R16" s="15">
-        <v>1</v>
-      </c>
-      <c r="S16" s="15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S16" s="20">
+        <v>0</v>
       </c>
       <c r="T16" s="15">
         <v>1</v>
@@ -6279,75 +6562,78 @@
         <v>1</v>
       </c>
       <c r="AB16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="15">
         <v>0</v>
       </c>
-      <c r="AE16" s="137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="14">
-      <c r="A17" s="260" t="s">
+      <c r="AE16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.25">
+      <c r="A17" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="147">
-        <v>1</v>
-      </c>
-      <c r="C17" s="35">
-        <v>1</v>
-      </c>
-      <c r="D17" s="35">
-        <v>1</v>
-      </c>
-      <c r="E17" s="35">
-        <v>1</v>
-      </c>
-      <c r="F17" s="35">
-        <v>1</v>
-      </c>
-      <c r="G17" s="35">
-        <v>1</v>
-      </c>
-      <c r="H17" s="35">
-        <v>0</v>
-      </c>
-      <c r="I17" s="35">
-        <v>0</v>
-      </c>
-      <c r="J17" s="35">
-        <v>0</v>
-      </c>
-      <c r="K17" s="15">
-        <v>0</v>
-      </c>
-      <c r="L17" s="20">
-        <v>1</v>
-      </c>
-      <c r="M17" s="20">
-        <v>1</v>
+      <c r="B17" s="34">
+        <v>1</v>
+      </c>
+      <c r="C17" s="34">
+        <v>1</v>
+      </c>
+      <c r="D17" s="34">
+        <v>1</v>
+      </c>
+      <c r="E17" s="34">
+        <v>1</v>
+      </c>
+      <c r="F17" s="34">
+        <v>1</v>
+      </c>
+      <c r="G17" s="34">
+        <v>1</v>
+      </c>
+      <c r="H17" s="34">
+        <v>1</v>
+      </c>
+      <c r="I17" s="34">
+        <v>1</v>
+      </c>
+      <c r="J17" s="34">
+        <v>0</v>
+      </c>
+      <c r="K17" s="34">
+        <v>0</v>
+      </c>
+      <c r="L17" s="34">
+        <v>0</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0</v>
       </c>
       <c r="N17" s="20">
         <v>1</v>
       </c>
       <c r="O17" s="20">
-        <v>0</v>
-      </c>
-      <c r="P17" s="15">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P17" s="20">
+        <v>1</v>
       </c>
       <c r="Q17" s="20">
         <v>0</v>
       </c>
       <c r="R17" s="15">
-        <v>1</v>
-      </c>
-      <c r="S17" s="15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S17" s="20">
+        <v>0</v>
       </c>
       <c r="T17" s="15">
         <v>1</v>
@@ -6362,87 +6648,90 @@
         <v>1</v>
       </c>
       <c r="X17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="15">
         <v>0</v>
       </c>
-      <c r="AE17" s="137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="14">
-      <c r="A18" s="262" t="s">
+      <c r="AE17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.25">
+      <c r="A18" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="147">
-        <v>1</v>
-      </c>
-      <c r="C18" s="35">
-        <v>1</v>
-      </c>
-      <c r="D18" s="35">
-        <v>1</v>
-      </c>
-      <c r="E18" s="35">
-        <v>1</v>
-      </c>
-      <c r="F18" s="35">
-        <v>1</v>
-      </c>
-      <c r="G18" s="35">
-        <v>1</v>
-      </c>
-      <c r="H18" s="35">
-        <v>1</v>
-      </c>
-      <c r="I18" s="35">
-        <v>0</v>
-      </c>
-      <c r="J18" s="35">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <v>1</v>
-      </c>
-      <c r="L18" s="20">
-        <v>1</v>
-      </c>
-      <c r="M18" s="20">
+      <c r="B18" s="34">
+        <v>1</v>
+      </c>
+      <c r="C18" s="34">
+        <v>1</v>
+      </c>
+      <c r="D18" s="34">
+        <v>1</v>
+      </c>
+      <c r="E18" s="34">
+        <v>1</v>
+      </c>
+      <c r="F18" s="34">
+        <v>1</v>
+      </c>
+      <c r="G18" s="34">
+        <v>1</v>
+      </c>
+      <c r="H18" s="34">
+        <v>1</v>
+      </c>
+      <c r="I18" s="34">
+        <v>1</v>
+      </c>
+      <c r="J18" s="34">
+        <v>1</v>
+      </c>
+      <c r="K18" s="34">
+        <v>0</v>
+      </c>
+      <c r="L18" s="34">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
         <v>1</v>
       </c>
       <c r="N18" s="20">
         <v>1</v>
       </c>
       <c r="O18" s="20">
-        <v>0</v>
-      </c>
-      <c r="P18" s="15">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P18" s="20">
+        <v>1</v>
       </c>
       <c r="Q18" s="20">
         <v>0</v>
       </c>
       <c r="R18" s="15">
-        <v>1</v>
-      </c>
-      <c r="S18" s="15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S18" s="20">
+        <v>0</v>
       </c>
       <c r="T18" s="15">
         <v>1</v>
@@ -6457,114 +6746,117 @@
         <v>1</v>
       </c>
       <c r="X18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="15">
         <v>0</v>
       </c>
-      <c r="AE18" s="137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="14">
-      <c r="A19" s="263" t="s">
+      <c r="AE18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.25">
+      <c r="A19" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="252">
-        <v>0</v>
-      </c>
-      <c r="C19" s="118">
-        <v>0</v>
-      </c>
-      <c r="D19" s="118">
-        <v>1</v>
-      </c>
-      <c r="E19" s="118">
-        <v>1</v>
-      </c>
-      <c r="F19" s="39">
-        <v>1</v>
-      </c>
-      <c r="G19" s="39">
-        <v>0</v>
-      </c>
-      <c r="H19" s="39">
-        <v>0</v>
-      </c>
-      <c r="I19" s="39">
-        <v>0</v>
-      </c>
-      <c r="J19" s="39">
-        <v>1</v>
-      </c>
-      <c r="K19" s="15">
-        <v>1</v>
-      </c>
-      <c r="L19" s="39">
-        <v>0</v>
-      </c>
-      <c r="M19" s="39">
-        <v>0</v>
-      </c>
-      <c r="N19" s="39">
-        <v>1</v>
-      </c>
-      <c r="O19" s="39">
-        <v>1</v>
-      </c>
-      <c r="P19" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="39">
-        <v>0</v>
+      <c r="B19" s="99">
+        <v>1</v>
+      </c>
+      <c r="C19" s="38">
+        <v>1</v>
+      </c>
+      <c r="D19" s="99">
+        <v>0</v>
+      </c>
+      <c r="E19" s="99">
+        <v>0</v>
+      </c>
+      <c r="F19" s="99">
+        <v>1</v>
+      </c>
+      <c r="G19" s="99">
+        <v>1</v>
+      </c>
+      <c r="H19" s="38">
+        <v>1</v>
+      </c>
+      <c r="I19" s="38">
+        <v>0</v>
+      </c>
+      <c r="J19" s="38">
+        <v>0</v>
+      </c>
+      <c r="K19" s="38">
+        <v>0</v>
+      </c>
+      <c r="L19" s="38">
+        <v>1</v>
+      </c>
+      <c r="M19" s="15">
+        <v>1</v>
+      </c>
+      <c r="N19" s="38">
+        <v>0</v>
+      </c>
+      <c r="O19" s="38">
+        <v>0</v>
+      </c>
+      <c r="P19" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="38">
+        <v>1</v>
       </c>
       <c r="R19" s="15">
         <v>0</v>
       </c>
-      <c r="S19" s="15">
-        <v>1</v>
+      <c r="S19" s="38">
+        <v>0</v>
       </c>
       <c r="T19" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="15">
         <v>0</v>
       </c>
       <c r="X19" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="15">
         <v>1</v>
       </c>
       <c r="AA19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="15">
         <v>0</v>
@@ -6572,79 +6864,82 @@
       <c r="AD19" s="15">
         <v>0</v>
       </c>
-      <c r="AE19" s="137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="14">
-      <c r="A20" s="263" t="s">
+      <c r="AE19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="14.25">
+      <c r="A20" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="252">
-        <v>0</v>
-      </c>
-      <c r="C20" s="118">
-        <v>1</v>
-      </c>
-      <c r="D20" s="118">
-        <v>1</v>
-      </c>
-      <c r="E20" s="118">
-        <v>1</v>
-      </c>
-      <c r="F20" s="39">
-        <v>1</v>
-      </c>
-      <c r="G20" s="39">
-        <v>1</v>
-      </c>
-      <c r="H20" s="39">
-        <v>1</v>
-      </c>
-      <c r="I20" s="39">
-        <v>1</v>
-      </c>
-      <c r="J20" s="39">
-        <v>0</v>
-      </c>
-      <c r="K20" s="15">
-        <v>1</v>
-      </c>
-      <c r="L20" s="39">
-        <v>1</v>
-      </c>
-      <c r="M20" s="39">
-        <v>1</v>
-      </c>
-      <c r="N20" s="39">
-        <v>1</v>
-      </c>
-      <c r="O20" s="39">
-        <v>0</v>
-      </c>
-      <c r="P20" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="39">
+      <c r="B20" s="99">
+        <v>1</v>
+      </c>
+      <c r="C20" s="38">
+        <v>1</v>
+      </c>
+      <c r="D20" s="99">
+        <v>0</v>
+      </c>
+      <c r="E20" s="99">
+        <v>1</v>
+      </c>
+      <c r="F20" s="99">
+        <v>1</v>
+      </c>
+      <c r="G20" s="99">
+        <v>1</v>
+      </c>
+      <c r="H20" s="38">
+        <v>1</v>
+      </c>
+      <c r="I20" s="38">
+        <v>1</v>
+      </c>
+      <c r="J20" s="38">
+        <v>1</v>
+      </c>
+      <c r="K20" s="38">
+        <v>1</v>
+      </c>
+      <c r="L20" s="38">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>1</v>
+      </c>
+      <c r="N20" s="38">
+        <v>1</v>
+      </c>
+      <c r="O20" s="38">
+        <v>1</v>
+      </c>
+      <c r="P20" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="38">
         <v>0</v>
       </c>
       <c r="R20" s="15">
         <v>0</v>
       </c>
-      <c r="S20" s="15">
+      <c r="S20" s="38">
         <v>0</v>
       </c>
       <c r="T20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="15">
         <v>0</v>
@@ -6653,13 +6948,13 @@
         <v>0</v>
       </c>
       <c r="Z20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="15">
         <v>0</v>
       </c>
       <c r="AB20" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="15">
         <v>0</v>
@@ -6667,201 +6962,210 @@
       <c r="AD20" s="15">
         <v>0</v>
       </c>
-      <c r="AE20" s="137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" ht="14">
-      <c r="A21" s="263" t="s">
+      <c r="AE20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="14.25">
+      <c r="A21" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="253">
-        <v>0</v>
-      </c>
-      <c r="C21" s="119">
-        <v>0</v>
-      </c>
-      <c r="D21" s="119">
-        <v>1</v>
-      </c>
-      <c r="E21" s="119">
-        <v>1</v>
-      </c>
-      <c r="F21" s="120">
-        <v>0</v>
-      </c>
-      <c r="G21" s="120">
-        <v>0</v>
-      </c>
-      <c r="H21" s="120">
-        <v>1</v>
-      </c>
-      <c r="I21" s="120">
-        <v>1</v>
-      </c>
-      <c r="J21" s="120">
-        <v>0</v>
-      </c>
-      <c r="K21" s="15">
-        <v>1</v>
-      </c>
-      <c r="L21" s="39">
-        <v>0</v>
-      </c>
-      <c r="M21" s="39">
-        <v>1</v>
-      </c>
-      <c r="N21" s="39">
-        <v>0</v>
-      </c>
-      <c r="O21" s="39">
-        <v>0</v>
-      </c>
-      <c r="P21" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="39">
-        <v>1</v>
+      <c r="B21" s="100">
+        <v>1</v>
+      </c>
+      <c r="C21" s="101">
+        <v>0</v>
+      </c>
+      <c r="D21" s="100">
+        <v>0</v>
+      </c>
+      <c r="E21" s="100">
+        <v>0</v>
+      </c>
+      <c r="F21" s="100">
+        <v>1</v>
+      </c>
+      <c r="G21" s="100">
+        <v>1</v>
+      </c>
+      <c r="H21" s="101">
+        <v>0</v>
+      </c>
+      <c r="I21" s="101">
+        <v>0</v>
+      </c>
+      <c r="J21" s="101">
+        <v>1</v>
+      </c>
+      <c r="K21" s="101">
+        <v>1</v>
+      </c>
+      <c r="L21" s="101">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <v>1</v>
+      </c>
+      <c r="N21" s="38">
+        <v>0</v>
+      </c>
+      <c r="O21" s="38">
+        <v>1</v>
+      </c>
+      <c r="P21" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="38">
+        <v>0</v>
       </c>
       <c r="R21" s="15">
-        <v>0</v>
-      </c>
-      <c r="S21" s="15">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S21" s="38">
+        <v>1</v>
       </c>
       <c r="T21" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="15">
         <v>0</v>
       </c>
       <c r="Y21" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="15">
         <v>1</v>
       </c>
       <c r="AB21" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="15">
         <v>1</v>
       </c>
       <c r="AD21" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" ht="14.5" thickBot="1">
-      <c r="A22" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="15" thickBot="1">
+      <c r="A22" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="254">
-        <v>1</v>
-      </c>
-      <c r="C22" s="255">
-        <v>1</v>
-      </c>
-      <c r="D22" s="255">
-        <v>1</v>
-      </c>
-      <c r="E22" s="255">
-        <v>1</v>
-      </c>
-      <c r="F22" s="256">
-        <v>1</v>
-      </c>
-      <c r="G22" s="256">
-        <v>1</v>
-      </c>
-      <c r="H22" s="256">
-        <v>1</v>
-      </c>
-      <c r="I22" s="256">
-        <v>1</v>
-      </c>
-      <c r="J22" s="256">
-        <v>1</v>
-      </c>
-      <c r="K22" s="257">
-        <v>1</v>
-      </c>
-      <c r="L22" s="258">
-        <v>1</v>
-      </c>
-      <c r="M22" s="258">
-        <v>1</v>
-      </c>
-      <c r="N22" s="258">
-        <v>1</v>
-      </c>
-      <c r="O22" s="258">
-        <v>1</v>
-      </c>
-      <c r="P22" s="257">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="258">
-        <v>1</v>
-      </c>
-      <c r="R22" s="257">
-        <v>1</v>
-      </c>
-      <c r="S22" s="257">
-        <v>1</v>
-      </c>
-      <c r="T22" s="257">
-        <v>1</v>
-      </c>
-      <c r="U22" s="257">
-        <v>1</v>
-      </c>
-      <c r="V22" s="257">
-        <v>1</v>
-      </c>
-      <c r="W22" s="257">
-        <v>1</v>
-      </c>
-      <c r="X22" s="257">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="257">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="257">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="257">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="257">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="257">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="257">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="B22" s="179">
+        <v>1</v>
+      </c>
+      <c r="C22" s="180">
+        <v>1</v>
+      </c>
+      <c r="D22" s="179">
+        <v>1</v>
+      </c>
+      <c r="E22" s="179">
+        <v>1</v>
+      </c>
+      <c r="F22" s="179">
+        <v>1</v>
+      </c>
+      <c r="G22" s="179">
+        <v>1</v>
+      </c>
+      <c r="H22" s="180">
+        <v>1</v>
+      </c>
+      <c r="I22" s="180">
+        <v>1</v>
+      </c>
+      <c r="J22" s="180">
+        <v>1</v>
+      </c>
+      <c r="K22" s="180">
+        <v>1</v>
+      </c>
+      <c r="L22" s="180">
+        <v>1</v>
+      </c>
+      <c r="M22" s="181">
+        <v>1</v>
+      </c>
+      <c r="N22" s="182">
+        <v>1</v>
+      </c>
+      <c r="O22" s="182">
+        <v>1</v>
+      </c>
+      <c r="P22" s="182">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="182">
+        <v>1</v>
+      </c>
+      <c r="R22" s="181">
+        <v>1</v>
+      </c>
+      <c r="S22" s="182">
+        <v>1</v>
+      </c>
+      <c r="T22" s="181">
+        <v>1</v>
+      </c>
+      <c r="U22" s="181">
+        <v>1</v>
+      </c>
+      <c r="V22" s="181">
+        <v>1</v>
+      </c>
+      <c r="W22" s="181">
+        <v>1</v>
+      </c>
+      <c r="X22" s="181">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="181">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="181">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="181">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="181">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="181">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="181">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="181">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -6879,15 +7183,16 @@
       <c r="O23" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="X3:Y3"/>
+  <mergeCells count="9">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="U3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="61" orientation="landscape"/>
@@ -6908,10 +7213,10 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="28.453125" customWidth="1"/>
     <col min="2" max="2" width="34.453125" customWidth="1"/>
@@ -6919,321 +7224,321 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.5">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="269" t="s">
+      <c r="B1" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="270" t="s">
+      <c r="C1" s="193" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25">
-      <c r="A2" s="271" t="s">
+    <row r="2" spans="1:5" ht="26">
+      <c r="A2" s="238" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="272" t="s">
+      <c r="C2" s="194" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25">
-      <c r="A3" s="271"/>
+    <row r="3" spans="1:5" ht="26">
+      <c r="A3" s="238"/>
       <c r="B3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="273" t="s">
+      <c r="C3" s="195" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="274" t="s">
-        <v>78</v>
+      <c r="A4" s="237" t="s">
+        <v>77</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="273" t="s">
+      <c r="C4" s="195" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26">
+      <c r="A5" s="237"/>
+      <c r="B5" s="32" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="25">
-      <c r="A5" s="274"/>
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="195" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="273" t="s">
+      <c r="E5" s="44"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="237"/>
+      <c r="B6" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="45"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="274"/>
-      <c r="B6" s="28" t="s">
+      <c r="C6" s="195" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="273" t="s">
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="237" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="274" t="s">
+      <c r="C7" s="195" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="237"/>
+      <c r="B8" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="195" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="237"/>
+      <c r="B9" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="195" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="31"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="237" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="273" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="32"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="274"/>
-      <c r="B8" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="273" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="32"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="274"/>
-      <c r="B9" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="273" t="s">
+      <c r="B10" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="32"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="274" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="28" t="s">
+      <c r="C10" s="195" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="237"/>
+      <c r="B11" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="273" t="s">
+      <c r="C11" s="195" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="32"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="274"/>
-      <c r="B11" s="28" t="s">
+      <c r="D11" s="31"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="237"/>
+      <c r="B12" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="273" t="s">
+      <c r="C12" s="195" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="32"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="274"/>
-      <c r="B12" s="28" t="s">
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="237"/>
+      <c r="B13" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="273" t="s">
+      <c r="C13" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="32"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="274"/>
-      <c r="B13" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="273" t="s">
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="237" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="195" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="32"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="274" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="237"/>
+      <c r="B15" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="195" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="237"/>
+      <c r="B16" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="195" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="237"/>
+      <c r="B17" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="195" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="237"/>
+      <c r="B18" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="195" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="237"/>
+      <c r="B19" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="195" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="237"/>
+      <c r="B20" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="195" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="237" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="273" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="274"/>
-      <c r="B15" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="273" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="274"/>
-      <c r="B16" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="273" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="274"/>
-      <c r="B17" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="273" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="32"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="274"/>
-      <c r="B18" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="273" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="274"/>
-      <c r="B19" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="273" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="274"/>
-      <c r="B20" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="273" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="274" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="28" t="s">
+      <c r="C21" s="195" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="273" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="237"/>
+      <c r="B22" s="27" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="274"/>
-      <c r="B22" s="28" t="s">
+      <c r="C22" s="195" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="273" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="237"/>
+      <c r="B23" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="195" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="274"/>
-      <c r="B23" s="28" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="237"/>
+      <c r="B24" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="273" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="274"/>
-      <c r="B24" s="28" t="s">
+      <c r="C24" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="273" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="26">
+      <c r="A25" s="237"/>
+      <c r="B25" s="27" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="25">
-      <c r="A25" s="274"/>
-      <c r="B25" s="28" t="s">
+      <c r="C25" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="273" t="s">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="237" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="274" t="s">
+      <c r="B26" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="C26" s="195" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="273" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="237"/>
+      <c r="B27" s="27" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="274"/>
-      <c r="B27" s="28" t="s">
+      <c r="C27" s="195" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="273" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="235" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="275" t="s">
+      <c r="B28" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="196" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="29" t="s">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="236"/>
+      <c r="B29" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="197" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="233" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="276" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="277"/>
-      <c r="B29" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="278" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="279" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="121" t="s">
+      <c r="C30" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="135" t="s">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="233"/>
+      <c r="B31" s="28" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="279"/>
-      <c r="B31" s="29" t="s">
+      <c r="C31" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="278" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="13.75" thickBot="1">
+      <c r="A32" s="234"/>
+      <c r="B32" s="198" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="13" thickBot="1">
-      <c r="A32" s="280"/>
-      <c r="B32" s="281" t="s">
+      <c r="C32" s="113" t="s">
         <v>136</v>
-      </c>
-      <c r="C32" s="138" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -7272,7 +7577,7 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="27.08984375" customWidth="1"/>
     <col min="2" max="7" width="5.7265625" customWidth="1"/>
@@ -7302,7 +7607,7 @@
     <col min="31" max="31" width="6.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="5" customFormat="1" ht="30.5">
+    <row r="1" spans="1:31" s="5" customFormat="1" ht="31">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -7314,7 +7619,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:31" s="5" customFormat="1" ht="18" thickBot="1">
+    <row r="2" spans="1:31" s="5" customFormat="1" ht="18.75" thickBot="1">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -7324,183 +7629,183 @@
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:31" s="146" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A3" s="172" t="s">
+    <row r="3" spans="1:31" s="118" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A3" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="241" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="231"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="230" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="231"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="230" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="230" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" s="231"/>
+      <c r="N3" s="231"/>
+      <c r="O3" s="231"/>
+      <c r="P3" s="231"/>
+      <c r="Q3" s="231"/>
+      <c r="R3" s="232"/>
+      <c r="S3" s="227" t="s">
+        <v>152</v>
+      </c>
+      <c r="T3" s="228"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="228"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="227" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="227" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA3" s="229"/>
+      <c r="AB3" s="227" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC3" s="228"/>
+      <c r="AD3" s="228"/>
+      <c r="AE3" s="229"/>
+    </row>
+    <row r="4" spans="1:31" ht="125.25" customHeight="1">
+      <c r="A4" s="240"/>
+      <c r="B4" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="111" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="109" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="107" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="141" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="130" t="s">
+      <c r="M4" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="130" t="s">
-        <v>207</v>
-      </c>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="130" t="s">
+      <c r="N4" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="O4" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="143" t="s">
+      <c r="P4" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="145"/>
-      <c r="X3" s="143" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y3" s="145"/>
-      <c r="Z3" s="143" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="143" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="145"/>
-    </row>
-    <row r="4" spans="1:31" ht="125.25" customHeight="1">
-      <c r="A4" s="173"/>
-      <c r="B4" s="167" t="s">
+      <c r="Q4" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="R4" s="109" t="s">
+        <v>172</v>
+      </c>
+      <c r="S4" s="111" t="s">
+        <v>173</v>
+      </c>
+      <c r="T4" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="U4" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="V4" s="107" t="s">
+        <v>176</v>
+      </c>
+      <c r="W4" s="109" t="s">
+        <v>177</v>
+      </c>
+      <c r="X4" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="Y4" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="Z4" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="136" t="s">
+      <c r="AA4" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="128" t="s">
+      <c r="AB4" s="116" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="133" t="s">
+      <c r="AC4" s="108" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="136" t="s">
+      <c r="AD4" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="128" t="s">
-        <v>185</v>
-      </c>
-      <c r="J4" s="171" t="s">
-        <v>186</v>
-      </c>
-      <c r="K4" s="133" t="s">
-        <v>187</v>
-      </c>
-      <c r="L4" s="136" t="s">
-        <v>188</v>
-      </c>
-      <c r="M4" s="128" t="s">
+      <c r="AE4" s="117" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="142" t="s">
         <v>189</v>
       </c>
-      <c r="N4" s="128" t="s">
-        <v>190</v>
-      </c>
-      <c r="O4" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="P4" s="128" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q4" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="R4" s="133" t="s">
-        <v>194</v>
-      </c>
-      <c r="S4" s="136" t="s">
-        <v>195</v>
-      </c>
-      <c r="T4" s="128" t="s">
-        <v>196</v>
-      </c>
-      <c r="U4" s="128" t="s">
-        <v>197</v>
-      </c>
-      <c r="V4" s="128" t="s">
-        <v>198</v>
-      </c>
-      <c r="W4" s="133" t="s">
-        <v>199</v>
-      </c>
-      <c r="X4" s="136" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y4" s="133" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z4" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA4" s="140" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB4" s="141" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC4" s="129" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD4" s="129" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE4" s="142" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="174" t="s">
-        <v>211</v>
-      </c>
       <c r="B5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="148" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="149" t="s">
+      <c r="C5" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="120" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="151" t="s">
+      <c r="G5" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="122" t="s">
         <v>49</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J5" s="20"/>
-      <c r="K5" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="149" t="s">
+      <c r="K5" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="120" t="s">
         <v>49</v>
       </c>
       <c r="M5" s="20" t="s">
@@ -7518,10 +7823,10 @@
       <c r="Q5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" s="149" t="s">
+      <c r="R5" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="120" t="s">
         <v>49</v>
       </c>
       <c r="T5" s="20" t="s">
@@ -7533,108 +7838,108 @@
       <c r="V5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="W5" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="X5" s="149" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y5" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z5" s="149" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA5" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB5" s="149" t="s">
+      <c r="W5" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="120" t="s">
         <v>49</v>
       </c>
       <c r="AC5" s="20"/>
       <c r="AD5" s="20"/>
-      <c r="AE5" s="150"/>
+      <c r="AE5" s="121"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="A6" s="174" t="s">
-        <v>212</v>
+      <c r="A6" s="142" t="s">
+        <v>190</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="148" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="149"/>
+      <c r="C6" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="120"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="151"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="122"/>
       <c r="I6" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="149"/>
+      <c r="K6" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="120"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
-      <c r="R6" s="150"/>
-      <c r="S6" s="149"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="120"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
-      <c r="W6" s="150"/>
-      <c r="X6" s="155"/>
-      <c r="Y6" s="156"/>
-      <c r="Z6" s="155"/>
-      <c r="AA6" s="156"/>
-      <c r="AB6" s="155"/>
-      <c r="AC6" s="157"/>
-      <c r="AD6" s="158"/>
-      <c r="AE6" s="156"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="128"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="127"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="A7" s="174" t="s">
-        <v>213</v>
+      <c r="A7" s="142" t="s">
+        <v>191</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="148" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="149" t="s">
+      <c r="C7" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="120" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="151" t="s">
+      <c r="G7" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="122" t="s">
         <v>49</v>
       </c>
       <c r="I7" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J7" s="20"/>
-      <c r="K7" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="149" t="s">
+      <c r="K7" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="120" t="s">
         <v>49</v>
       </c>
       <c r="M7" s="20" t="s">
@@ -7652,10 +7957,10 @@
       <c r="Q7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R7" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="S7" s="149" t="s">
+      <c r="R7" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="120" t="s">
         <v>49</v>
       </c>
       <c r="T7" s="20" t="s">
@@ -7667,22 +7972,22 @@
       <c r="V7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="W7" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="X7" s="149" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y7" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z7" s="149" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA7" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB7" s="149" t="s">
+      <c r="W7" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" s="120" t="s">
         <v>49</v>
       </c>
       <c r="AC7" s="20" t="s">
@@ -7691,25 +7996,25 @@
       <c r="AD7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AE7" s="150" t="s">
+      <c r="AE7" s="121" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="A8" s="174" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="168"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="159" t="s">
+      <c r="A8" s="142" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="138"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="130" t="s">
         <v>49</v>
       </c>
       <c r="M8" s="20" t="s">
@@ -7727,45 +8032,45 @@
       <c r="Q8" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="S8" s="149"/>
-      <c r="T8" s="157"/>
-      <c r="U8" s="157"/>
-      <c r="V8" s="157"/>
-      <c r="W8" s="156"/>
-      <c r="X8" s="155"/>
-      <c r="Y8" s="156"/>
-      <c r="Z8" s="155"/>
-      <c r="AA8" s="156"/>
-      <c r="AB8" s="155"/>
-      <c r="AC8" s="157"/>
-      <c r="AD8" s="157"/>
-      <c r="AE8" s="156"/>
+      <c r="R8" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="120"/>
+      <c r="T8" s="128"/>
+      <c r="U8" s="128"/>
+      <c r="V8" s="128"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="127"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="127"/>
+      <c r="AB8" s="126"/>
+      <c r="AC8" s="128"/>
+      <c r="AD8" s="128"/>
+      <c r="AE8" s="127"/>
     </row>
     <row r="9" spans="1:31">
-      <c r="A9" s="174" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="169"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="155"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="157"/>
-      <c r="Q9" s="157"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="159" t="s">
+      <c r="A9" s="142" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="139"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="130" t="s">
         <v>49</v>
       </c>
       <c r="T9" s="20" t="s">
@@ -7777,58 +8082,58 @@
       <c r="V9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="150" t="s">
-        <v>49</v>
-      </c>
-      <c r="X9" s="149"/>
-      <c r="Y9" s="156"/>
-      <c r="Z9" s="155"/>
-      <c r="AA9" s="156"/>
-      <c r="AB9" s="155"/>
-      <c r="AC9" s="157"/>
-      <c r="AD9" s="157"/>
-      <c r="AE9" s="156"/>
-    </row>
-    <row r="10" spans="1:31" ht="13" thickBot="1">
-      <c r="A10" s="175" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" s="170"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="160"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="162"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="161"/>
-      <c r="U10" s="161"/>
-      <c r="V10" s="161"/>
-      <c r="W10" s="162"/>
-      <c r="X10" s="160"/>
-      <c r="Y10" s="163" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z10" s="164" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA10" s="163" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB10" s="164"/>
-      <c r="AC10" s="165"/>
-      <c r="AD10" s="165"/>
-      <c r="AE10" s="163"/>
+      <c r="W9" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="X9" s="120"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="128"/>
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="127"/>
+    </row>
+    <row r="10" spans="1:31" ht="13.75" thickBot="1">
+      <c r="A10" s="143" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="140"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z10" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="136"/>
+      <c r="AD10" s="136"/>
+      <c r="AE10" s="134"/>
     </row>
     <row r="11" spans="1:31">
       <c r="H11"/>
